--- a/analyses/unipept-table-results/ja2_propeps.xlsx
+++ b/analyses/unipept-table-results/ja2_propeps.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/unipept-table-results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7F9C8DE4-46AC-1749-B19E-E79C28962711}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{08480364-44E3-CA41-9106-36F60321F87F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="1560" windowWidth="24580" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="3200" yWindow="3060" windowWidth="24580" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ja2_propeps" sheetId="1" r:id="rId1"/>
     <sheet name="prok only" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6872" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6877" uniqueCount="1229">
   <si>
     <t>peptide</t>
   </si>
@@ -3696,13 +3696,28 @@
   </si>
   <si>
     <t>WAGELSK</t>
+  </si>
+  <si>
+    <t>P. marinus</t>
+  </si>
+  <si>
+    <t>% of total database ID'd peptides</t>
+  </si>
+  <si>
+    <t>unique database ID'd peptides</t>
+  </si>
+  <si>
+    <t>Level of identification</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3836,6 +3851,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -4019,7 +4047,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -4134,6 +4162,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4179,8 +4250,29 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -16645,15 +16737,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD784"/>
+  <dimension ref="A1:AH784"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
-      <selection activeCell="A706" sqref="A706:XFD706"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3:AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="32" max="32" width="14.5" customWidth="1"/>
+    <col min="33" max="33" width="18.6640625" customWidth="1"/>
+    <col min="34" max="34" width="22.6640625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16745,7 +16842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -16753,15 +16850,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:34" ht="33" thickBot="1">
       <c r="A3" t="s">
         <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AF3" s="8" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AH3" s="9" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -16786,16 +16892,38 @@
       <c r="AA4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AF4" s="5" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AG4" s="6">
+        <f>COUNTIF(B2:B784,"Prochlorococcus marinus")</f>
+        <v>58</v>
+      </c>
+      <c r="AH4" s="7">
+        <f>AG4/784*100</f>
+        <v>7.3979591836734695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" t="s">
         <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="AF5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG5" s="3">
+        <f>COUNTIF(G2:G784,"Cyanobacteria")</f>
+        <v>146</v>
+      </c>
+      <c r="AH5" s="4">
+        <f>AG5/784*100</f>
+        <v>18.622448979591837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -16812,7 +16940,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:34">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -16829,7 +16957,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:34">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -16837,7 +16965,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:34">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -16845,7 +16973,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:34">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -16853,7 +16981,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:34">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -16879,7 +17007,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:34">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -16887,7 +17015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:34">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -16904,7 +17032,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:34">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -16912,7 +17040,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:34">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -16935,7 +17063,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:34">
       <c r="A16" t="s">
         <v>51</v>
       </c>

--- a/analyses/unipept-table-results/ja2_propeps.xlsx
+++ b/analyses/unipept-table-results/ja2_propeps.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/unipept-table-results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{08480364-44E3-CA41-9106-36F60321F87F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83516893-9CF5-934E-BE0A-6B80FDAFB61A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="3060" windowWidth="24580" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="1020" yWindow="2580" windowWidth="24580" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ja2_propeps" sheetId="1" r:id="rId1"/>
-    <sheet name="prok only" sheetId="2" r:id="rId2"/>
+    <sheet name="DB peps" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3713,7 +3720,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -4627,7 +4634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD797"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16736,11 +16743,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH784"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3:AH5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -16850,7 +16857,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="33" thickBot="1">
+    <row r="3" spans="1:34" ht="35" thickBot="1">
       <c r="A3" t="s">
         <v>32</v>
       </c>
